--- a/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R3.xlsx
+++ b/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R3.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Desktop\Thèse\EXPERIENCES\EXP2 - UPDATED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE7D146-3FCC-4573-86DE-0DF0057A4E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DS_size</t>
   </si>
@@ -23,18 +34,6 @@
   </si>
   <si>
     <t>CozoRPG</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>100K_500K</t>
-  </si>
-  <si>
-    <t>200K_1M</t>
-  </si>
-  <si>
-    <t>300K_1M500K</t>
   </si>
   <si>
     <t>400K_2M</t>
@@ -124,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,11 +187,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +273,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +325,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +518,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,341 +537,306 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>4962</v>
+      </c>
+      <c r="C2">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1541</v>
-      </c>
-      <c r="C2">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>5902</v>
+      </c>
+      <c r="C3">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2281</v>
-      </c>
-      <c r="C3">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>6843</v>
+      </c>
+      <c r="C4">
+        <v>7330</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3022</v>
-      </c>
-      <c r="C4">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>7783</v>
+      </c>
+      <c r="C5">
+        <v>8272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>4962</v>
-      </c>
-      <c r="C5">
-        <v>5491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>8123</v>
+      </c>
+      <c r="C6">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>5902</v>
-      </c>
-      <c r="C6">
-        <v>6434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>9263</v>
+      </c>
+      <c r="C7">
+        <v>9746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6843</v>
-      </c>
-      <c r="C7">
-        <v>7297</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>10304</v>
+      </c>
+      <c r="C8">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7783</v>
-      </c>
-      <c r="C8">
-        <v>8235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>11293</v>
+      </c>
+      <c r="C9">
+        <v>11752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8123</v>
-      </c>
-      <c r="C9">
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>11720</v>
+      </c>
+      <c r="C10">
+        <v>12204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9263</v>
-      </c>
-      <c r="C10">
-        <v>9755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>12425</v>
+      </c>
+      <c r="C11">
+        <v>12892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>10304</v>
-      </c>
-      <c r="C11">
-        <v>10830</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>13865</v>
+      </c>
+      <c r="C12">
+        <v>14294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>11293</v>
-      </c>
-      <c r="C12">
-        <v>11772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>14505</v>
+      </c>
+      <c r="C13">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>11720</v>
-      </c>
-      <c r="C13">
-        <v>12255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>15246</v>
+      </c>
+      <c r="C14">
+        <v>15728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>12425</v>
-      </c>
-      <c r="C14">
-        <v>12975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>15960</v>
+      </c>
+      <c r="C15">
+        <v>16374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>13865</v>
-      </c>
-      <c r="C15">
-        <v>14384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>17230</v>
+      </c>
+      <c r="C16">
+        <v>17697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>14505</v>
-      </c>
-      <c r="C16">
-        <v>15004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>18067</v>
+      </c>
+      <c r="C17">
+        <v>18535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>15246</v>
-      </c>
-      <c r="C17">
-        <v>15736</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>20007</v>
+      </c>
+      <c r="C18">
+        <v>20454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>15960</v>
-      </c>
-      <c r="C18">
-        <v>16440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>20647</v>
+      </c>
+      <c r="C19">
+        <v>21094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>17230</v>
-      </c>
-      <c r="C19">
-        <v>17709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>20588</v>
+      </c>
+      <c r="C20">
+        <v>21020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>18067</v>
-      </c>
-      <c r="C20">
-        <v>18553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>21828</v>
+      </c>
+      <c r="C21">
+        <v>22301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>20007</v>
-      </c>
-      <c r="C21">
-        <v>20503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>22768</v>
+      </c>
+      <c r="C22">
+        <v>23250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>20647</v>
-      </c>
-      <c r="C22">
-        <v>21194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>23808</v>
+      </c>
+      <c r="C23">
+        <v>24286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>20588</v>
-      </c>
-      <c r="C23">
-        <v>21043</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>24649</v>
+      </c>
+      <c r="C24">
+        <v>25141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>21828</v>
-      </c>
-      <c r="C24">
-        <v>22295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>25389</v>
+      </c>
+      <c r="C25">
+        <v>25832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>22768</v>
-      </c>
-      <c r="C25">
-        <v>23288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>25529</v>
+      </c>
+      <c r="C26">
+        <v>25960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>23808</v>
-      </c>
-      <c r="C26">
-        <v>24351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>26070</v>
+      </c>
+      <c r="C27">
+        <v>26534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>24649</v>
-      </c>
-      <c r="C27">
-        <v>25099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
       <c r="B28">
-        <v>25389</v>
+        <v>29410</v>
       </c>
       <c r="C28">
-        <v>25854</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>25529</v>
-      </c>
-      <c r="C29">
-        <v>25991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>26070</v>
-      </c>
-      <c r="C30">
-        <v>26573</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>29410</v>
-      </c>
-      <c r="C31">
-        <v>29943</v>
+        <v>29876</v>
       </c>
     </row>
   </sheetData>
